--- a/data/Perp/AerialKinData_perp.xlsx
+++ b/data/Perp/AerialKinData_perp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Dropbox\Research\Alaska SeaLife Center 2018-2020\Paper 2\Perpendicual Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Perp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8146912-C6C7-4E89-A083-761169F646C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D95DB3-D252-40B0-9CDF-A3E1322B818F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="1980" windowWidth="24570" windowHeight="12750" activeTab="1" xr2:uid="{06E7BFE7-03A6-4568-9F9B-9A07776F7D7F}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{06E7BFE7-03A6-4568-9F9B-9A07776F7D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="rawData" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="79">
   <si>
     <t>BirdID</t>
   </si>
@@ -140,16 +140,10 @@
     <t>Ground Strouhal</t>
   </si>
   <si>
-    <t>COMU feet</t>
-  </si>
-  <si>
     <t>Ground_sd</t>
   </si>
   <si>
     <t>Wingbeats</t>
-  </si>
-  <si>
-    <t>Averages</t>
   </si>
   <si>
     <t xml:space="preserve">COMU </t>
@@ -731,28 +725,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1446,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFB4C7-35FD-49E0-8F7D-CE5D1EFE30A7}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1473,18 +1467,20 @@
     <col min="18" max="18" width="10.84375" customWidth="1"/>
     <col min="19" max="19" width="13.4609375" customWidth="1"/>
     <col min="20" max="20" width="13.23046875" customWidth="1"/>
-    <col min="21" max="22" width="10.84375" customWidth="1"/>
-    <col min="23" max="23" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.765625" customWidth="1"/>
-    <col min="26" max="27" width="10.84375" customWidth="1"/>
-    <col min="28" max="28" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.61328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.84375" customWidth="1"/>
+    <col min="22" max="22" width="12.765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.921875" customWidth="1"/>
+    <col min="24" max="24" width="20.15234375" customWidth="1"/>
+    <col min="25" max="25" width="18.3828125" customWidth="1"/>
+    <col min="26" max="26" width="10.84375" customWidth="1"/>
+    <col min="27" max="27" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="28.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1501,13 +1497,13 @@
         <v>31</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>30</v>
@@ -1516,7 +1512,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>32</v>
@@ -1525,35 +1521,34 @@
         <v>33</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="S1" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W1" s="26"/>
       <c r="X1" s="26"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -1585,11 +1580,11 @@
         <v>13.32</v>
       </c>
       <c r="K2" s="15">
-        <f>(AVERAGE($W$3:$W$17)*0.001)*E2</f>
+        <f>(AVERAGE($V$3:$V$17)*0.001)*E2</f>
         <v>17.382952600690359</v>
       </c>
       <c r="L2" s="14">
-        <f>F2*AVERAGE($W$3:$W$17)*0.001</f>
+        <f>F2*AVERAGE($V$3:$V$17)*0.001</f>
         <v>0.4190705864432322</v>
       </c>
       <c r="M2" s="14">
@@ -1623,24 +1618,21 @@
         <v>1.8135683058545106E-2</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -1672,11 +1664,11 @@
         <v>13.32</v>
       </c>
       <c r="K3" s="15">
-        <f>(AVERAGE($W$3:$W$17)*0.001)*E3</f>
+        <f>(AVERAGE($V$3:$V$17)*0.001)*E3</f>
         <v>17.798435288921922</v>
       </c>
       <c r="L3" s="14">
-        <f>F3*AVERAGE($W$3:$W$17)*0.001</f>
+        <f>F3*AVERAGE($V$3:$V$17)*0.001</f>
         <v>0.38578145677608244</v>
       </c>
       <c r="M3" s="14">
@@ -1704,24 +1696,21 @@
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
       <c r="V3" s="5">
-        <v>324.61</v>
-      </c>
-      <c r="W3" s="5">
         <v>369.01</v>
       </c>
+      <c r="W3">
+        <v>278.58</v>
+      </c>
       <c r="X3">
-        <v>278.58</v>
+        <v>260.14</v>
       </c>
       <c r="Y3">
-        <v>260.14</v>
-      </c>
-      <c r="Z3">
         <v>277.23</v>
       </c>
+      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -1753,11 +1742,11 @@
         <v>13.32</v>
       </c>
       <c r="K4" s="15">
-        <f>(AVERAGE($W$3:$W$17)*0.001)*E4</f>
+        <f>(AVERAGE($V$3:$V$17)*0.001)*E4</f>
         <v>20.105118469196785</v>
       </c>
       <c r="L4" s="14">
-        <f>F4*AVERAGE($W$3:$W$17)*0.001</f>
+        <f>F4*AVERAGE($V$3:$V$17)*0.001</f>
         <v>0.38447136877308419</v>
       </c>
       <c r="M4" s="14">
@@ -1785,24 +1774,21 @@
       <c r="S4" s="13"/>
       <c r="T4" s="14"/>
       <c r="V4" s="5">
-        <v>376.36</v>
-      </c>
-      <c r="W4" s="5">
         <v>424.95</v>
       </c>
+      <c r="W4" s="1">
+        <v>297.87</v>
+      </c>
       <c r="X4" s="1">
-        <v>297.87</v>
-      </c>
-      <c r="Y4" s="1">
         <v>239.11</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Y4" s="5">
         <v>264.86</v>
       </c>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1834,11 +1820,11 @@
         <v>13.32</v>
       </c>
       <c r="K5" s="15">
-        <f>(AVERAGE($W$3:$W$17)*0.001)*E5</f>
+        <f>(AVERAGE($V$3:$V$17)*0.001)*E5</f>
         <v>18.38110873569568</v>
       </c>
       <c r="L5" s="14">
-        <f>F5*AVERAGE($W$3:$W$17)*0.001</f>
+        <f>F5*AVERAGE($V$3:$V$17)*0.001</f>
         <v>0.41109083557382714</v>
       </c>
       <c r="M5" s="14">
@@ -1866,24 +1852,21 @@
       <c r="S5" s="13"/>
       <c r="T5" s="14"/>
       <c r="V5" s="5">
-        <v>309.56</v>
-      </c>
-      <c r="W5" s="5">
         <v>348.36</v>
       </c>
+      <c r="W5" s="1">
+        <v>290.08</v>
+      </c>
       <c r="X5" s="1">
-        <v>290.08</v>
-      </c>
-      <c r="Y5" s="1">
         <v>257.35000000000002</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Y5" s="5">
         <v>270.24</v>
       </c>
+      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
@@ -1915,11 +1898,11 @@
         <v>13.32</v>
       </c>
       <c r="K6" s="19">
-        <f>(AVERAGE($W$3:$W$17)*0.001)*E6</f>
+        <f>(AVERAGE($V$3:$V$17)*0.001)*E6</f>
         <v>19.742634220487879</v>
       </c>
       <c r="L6" s="18">
-        <f>F6*AVERAGE($W$3:$W$17)*0.001</f>
+        <f>F6*AVERAGE($V$3:$V$17)*0.001</f>
         <v>0.41364099272692545</v>
       </c>
       <c r="M6" s="18">
@@ -1947,24 +1930,21 @@
       <c r="S6" s="13"/>
       <c r="T6" s="14"/>
       <c r="V6" s="5">
-        <v>356.64</v>
-      </c>
-      <c r="W6" s="5">
         <v>402.36</v>
       </c>
+      <c r="W6" s="1">
+        <v>290.18</v>
+      </c>
       <c r="X6" s="1">
-        <v>290.18</v>
-      </c>
-      <c r="Y6" s="1">
         <v>259.47000000000003</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Y6" s="5">
         <v>266.61</v>
       </c>
+      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1996,11 +1976,11 @@
         <v>13.95</v>
       </c>
       <c r="K7" s="23">
-        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E7</f>
+        <f>(AVERAGE($X$3:$X$17)*0.001)*E7</f>
         <v>16.764059200659453</v>
       </c>
       <c r="L7" s="22">
-        <f>F7*AVERAGE($Y$3:$Y$18)*0.001</f>
+        <f>F7*AVERAGE($X$3:$X$18)*0.001</f>
         <v>0.31648471437121484</v>
       </c>
       <c r="M7" s="22">
@@ -2034,24 +2014,21 @@
         <v>0.14181074242336755</v>
       </c>
       <c r="V7" s="1">
-        <v>386.62</v>
+        <v>438.84</v>
       </c>
       <c r="W7" s="1">
-        <v>438.84</v>
+        <v>287.45</v>
       </c>
       <c r="X7" s="1">
-        <v>287.45</v>
-      </c>
-      <c r="Y7" s="1">
         <v>285.31</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Y7" s="5">
         <v>300.69</v>
       </c>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -2083,11 +2060,11 @@
         <v>13.95</v>
       </c>
       <c r="K8" s="15">
-        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E8</f>
+        <f>(AVERAGE($X$3:$X$17)*0.001)*E8</f>
         <v>11.757764115606211</v>
       </c>
       <c r="L8" s="14">
-        <f>F8*AVERAGE($Y$3:$Y$18)*0.001</f>
+        <f>F8*AVERAGE($X$3:$X$18)*0.001</f>
         <v>0.34340830073946066</v>
       </c>
       <c r="M8" s="14">
@@ -2115,24 +2092,21 @@
       <c r="S8" s="13"/>
       <c r="T8" s="14"/>
       <c r="V8" s="1">
-        <v>361.22</v>
+        <v>404.98</v>
       </c>
       <c r="W8" s="1">
-        <v>404.98</v>
+        <v>305.45</v>
       </c>
       <c r="X8" s="1">
-        <v>305.45</v>
-      </c>
-      <c r="Y8" s="1">
         <v>277.77</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Y8" s="5">
         <v>262.57</v>
       </c>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
@@ -2164,11 +2138,11 @@
         <v>13.95</v>
       </c>
       <c r="K9" s="15">
-        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E9</f>
+        <f>(AVERAGE($X$3:$X$17)*0.001)*E9</f>
         <v>8.2341492592519288</v>
       </c>
       <c r="L9" s="14">
-        <f>F9*AVERAGE($Y$3:$Y$18)*0.001</f>
+        <f>F9*AVERAGE($X$3:$X$18)*0.001</f>
         <v>0.34414186752102227</v>
       </c>
       <c r="M9" s="14">
@@ -2196,24 +2170,21 @@
       <c r="S9" s="13"/>
       <c r="T9" s="14"/>
       <c r="V9" s="1">
-        <v>352.93</v>
+        <v>384.08</v>
       </c>
       <c r="W9" s="1">
-        <v>384.08</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>297.60000000000002</v>
-      </c>
-      <c r="Y9" s="1">
         <v>275.99</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Y9" s="5">
         <v>263.2</v>
       </c>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -2245,11 +2216,11 @@
         <v>13.95</v>
       </c>
       <c r="K10" s="19">
-        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E10</f>
+        <f>(AVERAGE($X$3:$X$17)*0.001)*E10</f>
         <v>8.4312846072575365</v>
       </c>
       <c r="L10" s="18">
-        <f>F10*AVERAGE($Y$3:$Y$18)*0.001</f>
+        <f>F10*AVERAGE($X$3:$X$18)*0.001</f>
         <v>0.32657154194309018</v>
       </c>
       <c r="M10" s="18">
@@ -2277,24 +2248,21 @@
       <c r="S10" s="13"/>
       <c r="T10" s="14"/>
       <c r="V10" s="1">
-        <v>372.01</v>
+        <v>434.05</v>
       </c>
       <c r="W10" s="1">
-        <v>434.05</v>
+        <v>290.3</v>
       </c>
       <c r="X10" s="1">
-        <v>290.3</v>
-      </c>
-      <c r="Y10" s="1">
         <v>273.92</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Y10" s="5">
         <v>270.79000000000002</v>
       </c>
+      <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
@@ -2326,11 +2294,11 @@
         <v>13.95</v>
       </c>
       <c r="K11" s="23">
-        <f>(AVERAGE($Z$3:$Z$17)*0.001)*E11</f>
+        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E11</f>
         <v>8.488753417682581</v>
       </c>
       <c r="L11" s="22">
-        <f>F11*AVERAGE($Z$3:$Z$18)*0.001</f>
+        <f>F11*AVERAGE($Y$3:$Y$18)*0.001</f>
         <v>0.33698864981236748</v>
       </c>
       <c r="M11" s="22">
@@ -2365,24 +2333,21 @@
       </c>
       <c r="U11"/>
       <c r="V11" s="1">
-        <v>405.19</v>
+        <v>475.07</v>
       </c>
       <c r="W11" s="1">
-        <v>475.07</v>
+        <v>289.70999999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>289.70999999999998</v>
-      </c>
-      <c r="Y11" s="1">
         <v>272.94</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Y11" s="5">
         <v>257.3</v>
       </c>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -2414,11 +2379,11 @@
         <v>13.95</v>
       </c>
       <c r="K12" s="15">
-        <f>(AVERAGE($Z$3:$Z$17)*0.001)*E12</f>
+        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E12</f>
         <v>8.1721286388099905</v>
       </c>
       <c r="L12" s="14">
-        <f>F12*AVERAGE($Z$3:$Z$18)*0.001</f>
+        <f>F12*AVERAGE($Y$3:$Y$18)*0.001</f>
         <v>0.35225282312272949</v>
       </c>
       <c r="M12" s="14">
@@ -2447,24 +2412,21 @@
       <c r="T12" s="14"/>
       <c r="U12"/>
       <c r="V12" s="4">
-        <v>330.51</v>
+        <v>356.78</v>
       </c>
       <c r="W12" s="4">
-        <v>356.78</v>
+        <v>292.52</v>
       </c>
       <c r="X12" s="4">
-        <v>292.52</v>
-      </c>
-      <c r="Y12" s="4">
         <v>263.62</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Y12" s="5">
         <v>310.27999999999997</v>
       </c>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2496,11 +2458,11 @@
         <v>13.95</v>
       </c>
       <c r="K13" s="15">
-        <f>(AVERAGE($Z$3:$Z$17)*0.001)*E13</f>
+        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E13</f>
         <v>7.4574002491826148</v>
       </c>
       <c r="L13" s="14">
-        <f>F13*AVERAGE($Z$3:$Z$18)*0.001</f>
+        <f>F13*AVERAGE($Y$3:$Y$18)*0.001</f>
         <v>0.32957217509798725</v>
       </c>
       <c r="M13" s="14">
@@ -2529,24 +2491,21 @@
       <c r="T13" s="14"/>
       <c r="U13"/>
       <c r="V13" s="4">
-        <v>385.26</v>
+        <v>425.55</v>
       </c>
       <c r="W13" s="4">
-        <v>425.55</v>
+        <v>282.11</v>
       </c>
       <c r="X13" s="4">
-        <v>282.11</v>
-      </c>
-      <c r="Y13" s="4">
         <v>240.79</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Y13" s="6">
         <v>262</v>
       </c>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2578,11 +2537,11 @@
         <v>13.95</v>
       </c>
       <c r="K14" s="15">
-        <f>(AVERAGE($Z$3:$Z$17)*0.001)*E14</f>
+        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E14</f>
         <v>6.4328088797654894</v>
       </c>
       <c r="L14" s="14">
-        <f>F14*AVERAGE($Z$3:$Z$18)*0.001</f>
+        <f>F14*AVERAGE($Y$3:$Y$18)*0.001</f>
         <v>0.31319153489402152</v>
       </c>
       <c r="M14" s="14">
@@ -2611,24 +2570,21 @@
       <c r="T14" s="14"/>
       <c r="U14"/>
       <c r="V14" s="4">
-        <v>344.01</v>
+        <v>394.93</v>
       </c>
       <c r="W14" s="4">
-        <v>394.93</v>
+        <v>270.69</v>
       </c>
       <c r="X14" s="4">
-        <v>270.69</v>
-      </c>
-      <c r="Y14" s="4">
         <v>250.6</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Y14" s="6">
         <v>272.63</v>
       </c>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
@@ -2660,11 +2616,11 @@
         <v>13.95</v>
       </c>
       <c r="K15" s="19">
-        <f>(AVERAGE($Z$3:$Z$17)*0.001)*E15</f>
+        <f>(AVERAGE($Y$3:$Y$17)*0.001)*E15</f>
         <v>6.7109468120038471</v>
       </c>
       <c r="L15" s="18">
-        <f>F15*AVERAGE($Z$3:$Z$18)*0.001</f>
+        <f>F15*AVERAGE($Y$3:$Y$18)*0.001</f>
         <v>0.29762725381275273</v>
       </c>
       <c r="M15" s="18">
@@ -2693,24 +2649,21 @@
       <c r="T15" s="14"/>
       <c r="U15"/>
       <c r="V15" s="4">
-        <v>384.29</v>
+        <v>434.25</v>
       </c>
       <c r="W15" s="4">
-        <v>434.25</v>
+        <v>297.5</v>
       </c>
       <c r="X15" s="4">
-        <v>297.5</v>
-      </c>
-      <c r="Y15" s="4">
         <v>267.05</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Y15" s="6">
         <v>310.62</v>
       </c>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2742,11 +2695,11 @@
         <v>13.95</v>
       </c>
       <c r="K16" s="6">
-        <f>(AVERAGE($X$3:$X$17)*0.001)*E16</f>
+        <f>(AVERAGE($W$3:$W$17)*0.001)*E16</f>
         <v>12.284702736124387</v>
       </c>
       <c r="L16" s="8">
-        <f>F16*AVERAGE($X$3:$X$17)*0.001</f>
+        <f>F16*AVERAGE($W$3:$W$17)*0.001</f>
         <v>0.36320228576788105</v>
       </c>
       <c r="M16" s="8">
@@ -2780,24 +2733,21 @@
         <v>2.1590024702780378E-2</v>
       </c>
       <c r="V16" s="4">
-        <v>343.93</v>
+        <v>389.9</v>
       </c>
       <c r="W16" s="4">
-        <v>389.9</v>
+        <v>290.57</v>
       </c>
       <c r="X16" s="4">
-        <v>290.57</v>
-      </c>
-      <c r="Y16" s="4">
         <v>232.18</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Y16" s="6">
         <v>300.64</v>
       </c>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -2829,11 +2779,11 @@
         <v>13.95</v>
       </c>
       <c r="K17" s="6">
-        <f>(AVERAGE($X$3:$X$17)*0.001)*E17</f>
+        <f>(AVERAGE($W$3:$W$17)*0.001)*E17</f>
         <v>11.995017856704576</v>
       </c>
       <c r="L17" s="8">
-        <f>F17*AVERAGE($X$3:$X$17)*0.001</f>
+        <f>F17*AVERAGE($W$3:$W$17)*0.001</f>
         <v>0.38715713263699464</v>
       </c>
       <c r="M17" s="8">
@@ -2861,24 +2811,21 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="V17" s="1">
-        <v>325.08999999999997</v>
+        <v>359.22</v>
       </c>
       <c r="W17" s="1">
-        <v>359.22</v>
+        <v>295.04000000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>295.04000000000002</v>
-      </c>
-      <c r="Y17" s="1">
         <v>254.1</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Y17" s="6">
         <v>260.83</v>
       </c>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2910,11 +2857,11 @@
         <v>13.95</v>
       </c>
       <c r="K18" s="6">
-        <f>(AVERAGE($X$3:$X$17)*0.001)*E18</f>
+        <f>(AVERAGE($W$3:$W$17)*0.001)*E18</f>
         <v>11.368942779586563</v>
       </c>
       <c r="L18" s="8">
-        <f>F18*AVERAGE($X$3:$X$17)*0.001</f>
+        <f>F18*AVERAGE($W$3:$W$17)*0.001</f>
         <v>0.36030829461818648</v>
       </c>
       <c r="M18" s="8">
@@ -2941,17 +2888,14 @@
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="V18" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="V18" s="25"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
+      <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2983,11 +2927,11 @@
         <v>13.95</v>
       </c>
       <c r="K19" s="6">
-        <f>(AVERAGE($X$3:$X$17)*0.001)*E19</f>
+        <f>(AVERAGE($W$3:$W$17)*0.001)*E19</f>
         <v>12.315953364836561</v>
       </c>
       <c r="L19" s="8">
-        <f>F19*AVERAGE($X$3:$X$17)*0.001</f>
+        <f>F19*AVERAGE($W$3:$W$17)*0.001</f>
         <v>0.35766148365415634</v>
       </c>
       <c r="M19" s="8">
@@ -3016,40 +2960,33 @@
       <c r="T19" s="3"/>
       <c r="V19" s="1">
         <f>AVERAGE(V3:V17)</f>
-        <v>357.21533333333338</v>
+        <v>402.82200000000006</v>
       </c>
       <c r="W19" s="1">
         <f>AVERAGE(W3:W17)</f>
-        <v>402.82200000000006</v>
+        <v>290.37666666666672</v>
       </c>
       <c r="X19" s="1">
         <f>AVERAGE(X3:X17)</f>
-        <v>290.37666666666672</v>
+        <v>260.68933333333331</v>
       </c>
       <c r="Y19" s="1">
         <f>AVERAGE(Y3:Y17)</f>
-        <v>260.68933333333331</v>
-      </c>
-      <c r="Z19" s="1">
-        <f>AVERAGE(Z3:Z17)</f>
         <v>276.69933333333336</v>
       </c>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="O21" s="2"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="V30" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J19">
     <sortCondition ref="B1"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3086,22 +3023,22 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -3115,28 +3052,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="175.3" customHeight="1" x14ac:dyDescent="0.4">
@@ -3144,28 +3081,28 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3187,7 +3124,7 @@
     </row>
     <row r="10" spans="1:20" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3217,13 +3154,13 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>30</v>
@@ -3232,7 +3169,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>32</v>
@@ -3241,81 +3178,81 @@
         <v>33</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="S11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="177.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="L12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="Q12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="R12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
